--- a/biology/Zoologie/Idaea_aversata/Idaea_aversata.xlsx
+++ b/biology/Zoologie/Idaea_aversata/Idaea_aversata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impolie, Acidalie détournée
 Idaea aversata, l’Impolie ou l’Acidalie détournée, est une espèce de lépidoptères (papillons) de la famille des Geometridae et de la sous-famille des Sterrhinae.
@@ -512,10 +524,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En français : l'Impolie, l'Acidalie détournée[1],[2].
-En anglais : Riband Wave[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En français : l'Impolie, l'Acidalie détournée,.
+En anglais : Riband Wave.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Espèce très variable, envergure du mâle : de 23 à 30 mm.</t>
         </is>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plurivoltine, elle vole d'avril à octobre selon la localisation[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plurivoltine, elle vole d'avril à octobre selon la localisation.
 Polyphages, les chenilles se nourrissent de Calluna, Poa, Taraxacum...</t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Europe, Afrique du Nord et de l'Asie mineure jusqu'au Japon.</t>
         </is>
